--- a/IEC/0_IEC_template.xlsx
+++ b/IEC/0_IEC_template.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AZ\alaniszeo_git\EC-generic-model\Database_for_model_validation\IEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AZ\alaniszeo_git\OSD-ECMTest\IEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F772417F-66AB-45D7-91B4-1E93EDF3D0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D046244-C63E-406B-809A-C5222CBAD7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{1306219A-737B-4B5D-BCFD-98C34D3C77CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{1306219A-737B-4B5D-BCFD-98C34D3C77CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Nomenclature" sheetId="12" r:id="rId1"/>
-    <sheet name="Template" sheetId="13" r:id="rId2"/>
+    <sheet name="Characteristics" sheetId="13" r:id="rId2"/>
+    <sheet name="Data" sheetId="14" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -807,29 +808,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1666,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875786FA-5A50-4AE4-9B36-A94BE7FBCFAE}">
-  <dimension ref="B1:AA61"/>
+  <dimension ref="B1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1710,69 +1711,69 @@
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="77"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="80"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="78"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="80"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="78"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="78"/>
     </row>
     <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="16" t="s">
@@ -1835,12 +1836,12 @@
         <v>19</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="80"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
@@ -2006,704 +2007,11 @@
       <c r="X28" s="17"/>
       <c r="Y28" s="17"/>
     </row>
-    <row r="29" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="4"/>
-    </row>
-    <row r="31" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="N31" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="O31" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="P31" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q31" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="R31" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="S31" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="T31" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="U31" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="V31" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="W31" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="X31" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y31" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z31" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B32" s="5">
-        <v>1</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="I32" s="51"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="68"/>
-      <c r="Y32" s="65"/>
-      <c r="Z32" s="52"/>
       <c r="AA32" s="23"/>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B33" s="5">
-        <v>2</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="I33" s="51"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="5"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="63"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="69"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="53"/>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B34" s="5">
-        <v>3</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="I34" s="51"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="5"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="63"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="69"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="53"/>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B35" s="5">
-        <v>4</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="I35" s="51"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="5"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="63"/>
-      <c r="U35" s="49"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="69"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="53"/>
-    </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B36" s="5">
-        <v>5</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="I36" s="51"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="5"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="63"/>
-      <c r="U36" s="49"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="69"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="53"/>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B37" s="5">
-        <v>6</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="I37" s="51"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="5"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="63"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="23"/>
-      <c r="W37" s="59"/>
-      <c r="X37" s="69"/>
-      <c r="Y37" s="17"/>
-      <c r="Z37" s="53"/>
-    </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B38" s="5">
-        <v>7</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="I38" s="51"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="5"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="63"/>
-      <c r="U38" s="49"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="69"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="53"/>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B39" s="5">
-        <v>8</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="I39" s="51"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="5"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="63"/>
-      <c r="U39" s="49"/>
-      <c r="V39" s="23"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="69"/>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="53"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B40" s="5">
-        <v>9</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="I40" s="51"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="5"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="45"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="63"/>
-      <c r="U40" s="49"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="69"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="53"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B41" s="5">
-        <v>10</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="I41" s="51"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="5"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="63"/>
-      <c r="U41" s="49"/>
-      <c r="V41" s="23"/>
-      <c r="W41" s="59"/>
-      <c r="X41" s="69"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="53"/>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B42" s="5">
-        <v>11</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="I42" s="51"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="5"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="63"/>
-      <c r="U42" s="49"/>
-      <c r="V42" s="23"/>
-      <c r="W42" s="59"/>
-      <c r="X42" s="69"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="53"/>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B43" s="5">
-        <v>12</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="I43" s="51"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="5"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="45"/>
-      <c r="S43" s="59"/>
-      <c r="T43" s="63"/>
-      <c r="U43" s="49"/>
-      <c r="V43" s="23"/>
-      <c r="W43" s="59"/>
-      <c r="X43" s="69"/>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="53"/>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B44" s="5">
-        <v>13</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="I44" s="51"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="5"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="45"/>
-      <c r="S44" s="59"/>
-      <c r="T44" s="63"/>
-      <c r="U44" s="49"/>
-      <c r="V44" s="23"/>
-      <c r="W44" s="59"/>
-      <c r="X44" s="69"/>
-      <c r="Y44" s="17"/>
-      <c r="Z44" s="53"/>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B45" s="5">
-        <v>14</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="I45" s="51"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="5"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="45"/>
-      <c r="S45" s="59"/>
-      <c r="T45" s="63"/>
-      <c r="U45" s="49"/>
-      <c r="V45" s="23"/>
-      <c r="W45" s="59"/>
-      <c r="X45" s="69"/>
-      <c r="Y45" s="17"/>
-      <c r="Z45" s="53"/>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B46" s="5">
-        <v>15</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="I46" s="51"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="5"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="45"/>
-      <c r="S46" s="59"/>
-      <c r="T46" s="63"/>
-      <c r="U46" s="49"/>
-      <c r="V46" s="23"/>
-      <c r="W46" s="59"/>
-      <c r="X46" s="69"/>
-      <c r="Y46" s="17"/>
-      <c r="Z46" s="53"/>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B47" s="5">
-        <v>16</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="I47" s="51"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="5"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="45"/>
-      <c r="S47" s="59"/>
-      <c r="T47" s="63"/>
-      <c r="U47" s="49"/>
-      <c r="V47" s="23"/>
-      <c r="W47" s="59"/>
-      <c r="X47" s="69"/>
-      <c r="Y47" s="17"/>
-      <c r="Z47" s="53"/>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B48" s="5">
-        <v>17</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="I48" s="51"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="5"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="59"/>
-      <c r="T48" s="63"/>
-      <c r="U48" s="49"/>
-      <c r="V48" s="23"/>
-      <c r="W48" s="59"/>
-      <c r="X48" s="69"/>
-      <c r="Y48" s="17"/>
-      <c r="Z48" s="53"/>
-    </row>
-    <row r="49" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B49" s="5">
-        <v>18</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="I49" s="51"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="5"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="45"/>
-      <c r="S49" s="59"/>
-      <c r="T49" s="63"/>
-      <c r="U49" s="49"/>
-      <c r="V49" s="23"/>
-      <c r="W49" s="59"/>
-      <c r="X49" s="69"/>
-      <c r="Y49" s="17"/>
-      <c r="Z49" s="53"/>
-    </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B50" s="5">
-        <v>19</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="I50" s="51"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="5"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="59"/>
-      <c r="T50" s="63"/>
-      <c r="U50" s="49"/>
-      <c r="V50" s="23"/>
-      <c r="W50" s="59"/>
-      <c r="X50" s="69"/>
-      <c r="Y50" s="17"/>
-      <c r="Z50" s="53"/>
-    </row>
-    <row r="51" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B51" s="5">
-        <v>20</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="I51" s="51"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="5"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="45"/>
-      <c r="S51" s="59"/>
-      <c r="T51" s="63"/>
-      <c r="U51" s="49"/>
-      <c r="V51" s="23"/>
-      <c r="W51" s="59"/>
-      <c r="X51" s="69"/>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="53"/>
-    </row>
-    <row r="52" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B52" s="5">
-        <v>21</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="I52" s="51"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="5"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="45"/>
-      <c r="S52" s="59"/>
-      <c r="T52" s="63"/>
-      <c r="U52" s="49"/>
-      <c r="V52" s="23"/>
-      <c r="W52" s="59"/>
-      <c r="X52" s="69"/>
-      <c r="Y52" s="17"/>
-      <c r="Z52" s="53"/>
-    </row>
-    <row r="53" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B53" s="5">
-        <v>22</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="I53" s="51"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="5"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="45"/>
-      <c r="S53" s="59"/>
-      <c r="T53" s="63"/>
-      <c r="U53" s="49"/>
-      <c r="V53" s="23"/>
-      <c r="W53" s="59"/>
-      <c r="X53" s="69"/>
-      <c r="Y53" s="17"/>
-      <c r="Z53" s="53"/>
-    </row>
-    <row r="54" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B54" s="5">
-        <v>23</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="I54" s="51"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="5"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="45"/>
-      <c r="S54" s="59"/>
-      <c r="T54" s="63"/>
-      <c r="U54" s="49"/>
-      <c r="V54" s="23"/>
-      <c r="W54" s="59"/>
-      <c r="X54" s="69"/>
-      <c r="Y54" s="17"/>
-      <c r="Z54" s="53"/>
-    </row>
-    <row r="55" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B55" s="5">
-        <v>24</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="I55" s="51"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="5"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="45"/>
-      <c r="S55" s="59"/>
-      <c r="T55" s="63"/>
-      <c r="U55" s="49"/>
-      <c r="V55" s="23"/>
-      <c r="W55" s="59"/>
-      <c r="X55" s="69"/>
-      <c r="Y55" s="17"/>
-      <c r="Z55" s="53"/>
-    </row>
-    <row r="56" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B56" s="5">
-        <v>25</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="I56" s="51"/>
-      <c r="L56" s="53"/>
-      <c r="M56" s="5"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="45"/>
-      <c r="S56" s="59"/>
-      <c r="T56" s="63"/>
-      <c r="U56" s="49"/>
-      <c r="V56" s="23"/>
-      <c r="W56" s="59"/>
-      <c r="X56" s="69"/>
-      <c r="Y56" s="17"/>
-      <c r="Z56" s="53"/>
-    </row>
-    <row r="57" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B57" s="5">
-        <v>26</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="I57" s="51"/>
-      <c r="L57" s="53"/>
-      <c r="M57" s="5"/>
-      <c r="Q57" s="23"/>
-      <c r="R57" s="45"/>
-      <c r="S57" s="59"/>
-      <c r="T57" s="63"/>
-      <c r="U57" s="49"/>
-      <c r="V57" s="23"/>
-      <c r="W57" s="59"/>
-      <c r="X57" s="69"/>
-      <c r="Y57" s="17"/>
-      <c r="Z57" s="53"/>
-    </row>
-    <row r="58" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B58" s="5">
-        <v>27</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="I58" s="51"/>
-      <c r="L58" s="53"/>
-      <c r="M58" s="5"/>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="45"/>
-      <c r="S58" s="59"/>
-      <c r="T58" s="63"/>
-      <c r="U58" s="49"/>
-      <c r="V58" s="23"/>
-      <c r="W58" s="59"/>
-      <c r="X58" s="69"/>
-      <c r="Y58" s="17"/>
-      <c r="Z58" s="53"/>
-    </row>
-    <row r="59" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B59" s="5">
-        <v>28</v>
-      </c>
-      <c r="C59" s="5"/>
-      <c r="I59" s="51"/>
-      <c r="L59" s="53"/>
-      <c r="M59" s="5"/>
-      <c r="Q59" s="23"/>
-      <c r="R59" s="45"/>
-      <c r="S59" s="59"/>
-      <c r="T59" s="63"/>
-      <c r="U59" s="49"/>
-      <c r="V59" s="23"/>
-      <c r="W59" s="59"/>
-      <c r="X59" s="69"/>
-      <c r="Y59" s="17"/>
-      <c r="Z59" s="53"/>
-    </row>
-    <row r="60" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B60" s="5">
-        <v>29</v>
-      </c>
-      <c r="C60" s="5"/>
-      <c r="I60" s="51"/>
-      <c r="L60" s="53"/>
-      <c r="M60" s="5"/>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="45"/>
-      <c r="S60" s="59"/>
-      <c r="T60" s="63"/>
-      <c r="U60" s="49"/>
-      <c r="V60" s="23"/>
-      <c r="W60" s="59"/>
-      <c r="X60" s="69"/>
-      <c r="Y60" s="17"/>
-      <c r="Z60" s="53"/>
-    </row>
-    <row r="61" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="7">
-        <v>30</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="71"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="24"/>
-      <c r="R61" s="47"/>
-      <c r="S61" s="60"/>
-      <c r="T61" s="64"/>
-      <c r="U61" s="50"/>
-      <c r="V61" s="24"/>
-      <c r="W61" s="60"/>
-      <c r="X61" s="70"/>
-      <c r="Y61" s="66"/>
-      <c r="Z61" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2715,4 +2023,718 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708DA252-7F38-428F-9942-25032FDD62A0}">
+  <dimension ref="A1:Y32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="4"/>
+    </row>
+    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="H3" s="51"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="52"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="H4" s="51"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="5"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="53"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="H5" s="51"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="5"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="53"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="H6" s="51"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="5"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="53"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="H7" s="51"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="5"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="53"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="H8" s="51"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="5"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="53"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="H9" s="51"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="5"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="53"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="H10" s="51"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="5"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="53"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="H11" s="51"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="5"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="53"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="H12" s="51"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="5"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="53"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="H13" s="51"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="5"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="53"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="H14" s="51"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="5"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="53"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="H15" s="51"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="5"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="69"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="53"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="H16" s="51"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="5"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="53"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="H17" s="51"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="5"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="53"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="H18" s="51"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="5"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="53"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="H19" s="51"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="5"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="53"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="H20" s="51"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="5"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="53"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="H21" s="51"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="5"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="53"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="H22" s="51"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="5"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="53"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="H23" s="51"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="5"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="69"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="53"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="H24" s="51"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="5"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="69"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="53"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="H25" s="51"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="5"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="53"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="H26" s="51"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="5"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="53"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="H27" s="51"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="5"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="53"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="H28" s="51"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="5"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="69"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="53"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="H29" s="51"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="5"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="69"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="53"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="H30" s="51"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="5"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="69"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="53"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="H31" s="51"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="5"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="69"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="53"/>
+    </row>
+    <row r="32" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>30</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="64"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="70"/>
+      <c r="X32" s="66"/>
+      <c r="Y32" s="67"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>